--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Selplg-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Selplg-Selp.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.045864666666667</v>
+        <v>3.015833333333333</v>
       </c>
       <c r="H2">
-        <v>3.137594</v>
+        <v>9.047499999999999</v>
       </c>
       <c r="I2">
-        <v>0.01599546767026659</v>
+        <v>0.05376901095572644</v>
       </c>
       <c r="J2">
-        <v>0.01599546767026659</v>
+        <v>0.05376901095572643</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.960008</v>
+        <v>35.585194</v>
       </c>
       <c r="N2">
-        <v>47.880024</v>
+        <v>106.755582</v>
       </c>
       <c r="O2">
-        <v>0.9899803616776065</v>
+        <v>0.9972091466993565</v>
       </c>
       <c r="P2">
-        <v>0.9899803616776066</v>
+        <v>0.9972091466993567</v>
       </c>
       <c r="Q2">
-        <v>16.69200844691733</v>
+        <v>107.3190142383333</v>
       </c>
       <c r="R2">
-        <v>150.228076022256</v>
+        <v>965.8711281449999</v>
       </c>
       <c r="S2">
-        <v>0.01583519886941298</v>
+        <v>0.05361894953402831</v>
       </c>
       <c r="T2">
-        <v>0.01583519886941298</v>
+        <v>0.05361894953402832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.045864666666667</v>
+        <v>3.015833333333333</v>
       </c>
       <c r="H3">
-        <v>3.137594</v>
+        <v>9.047499999999999</v>
       </c>
       <c r="I3">
-        <v>0.01599546767026659</v>
+        <v>0.05376901095572644</v>
       </c>
       <c r="J3">
-        <v>0.01599546767026659</v>
+        <v>0.05376901095572643</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.09955433333333334</v>
+        <v>0.093901</v>
       </c>
       <c r="N3">
-        <v>0.298663</v>
+        <v>0.281703</v>
       </c>
       <c r="O3">
-        <v>0.006175237187845165</v>
+        <v>0.002631401590341653</v>
       </c>
       <c r="P3">
-        <v>0.006175237187845166</v>
+        <v>0.002631401590341654</v>
       </c>
       <c r="Q3">
-        <v>0.1041203596468889</v>
+        <v>0.2831897658333333</v>
       </c>
       <c r="R3">
-        <v>0.937083236822</v>
+        <v>2.5487078925</v>
       </c>
       <c r="S3">
-        <v>9.877580679440529E-05</v>
+        <v>0.0001414878609399963</v>
       </c>
       <c r="T3">
-        <v>9.877580679440531E-05</v>
+        <v>0.0001414878609399964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.045864666666667</v>
+        <v>3.015833333333333</v>
       </c>
       <c r="H4">
-        <v>3.137594</v>
+        <v>9.047499999999999</v>
       </c>
       <c r="I4">
-        <v>0.01599546767026659</v>
+        <v>0.05376901095572644</v>
       </c>
       <c r="J4">
-        <v>0.01599546767026659</v>
+        <v>0.05376901095572643</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.06197766666666667</v>
+        <v>0.00569</v>
       </c>
       <c r="N4">
-        <v>0.185933</v>
+        <v>0.01707</v>
       </c>
       <c r="O4">
-        <v>0.003844401134548354</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="P4">
-        <v>0.003844401134548355</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="Q4">
-        <v>0.06482025168911112</v>
+        <v>0.01716009166666667</v>
       </c>
       <c r="R4">
-        <v>0.5833822652020001</v>
+        <v>0.154440825</v>
       </c>
       <c r="S4">
-        <v>6.149299405920439E-05</v>
+        <v>8.573560758123761E-06</v>
       </c>
       <c r="T4">
-        <v>6.149299405920439E-05</v>
+        <v>8.573560758123761E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>6.020107</v>
       </c>
       <c r="I5">
-        <v>0.03069053130839924</v>
+        <v>0.03577730856453667</v>
       </c>
       <c r="J5">
-        <v>0.03069053130839923</v>
+        <v>0.03577730856453666</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.960008</v>
+        <v>35.585194</v>
       </c>
       <c r="N5">
-        <v>47.880024</v>
+        <v>106.755582</v>
       </c>
       <c r="O5">
-        <v>0.9899803616776065</v>
+        <v>0.9972091466993565</v>
       </c>
       <c r="P5">
-        <v>0.9899803616776066</v>
+        <v>0.9972091466993567</v>
       </c>
       <c r="Q5">
-        <v>32.02698529361867</v>
+        <v>71.40889183191935</v>
       </c>
       <c r="R5">
-        <v>288.242867642568</v>
+        <v>642.6800264872741</v>
       </c>
       <c r="S5">
-        <v>0.03038302328476698</v>
+        <v>0.03567745934484119</v>
       </c>
       <c r="T5">
-        <v>0.03038302328476698</v>
+        <v>0.03567745934484119</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.020107</v>
       </c>
       <c r="I6">
-        <v>0.03069053130839924</v>
+        <v>0.03577730856453667</v>
       </c>
       <c r="J6">
-        <v>0.03069053130839923</v>
+        <v>0.03577730856453666</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.09955433333333334</v>
+        <v>0.093901</v>
       </c>
       <c r="N6">
-        <v>0.298663</v>
+        <v>0.281703</v>
       </c>
       <c r="O6">
-        <v>0.006175237187845165</v>
+        <v>0.002631401590341653</v>
       </c>
       <c r="P6">
-        <v>0.006175237187845166</v>
+        <v>0.002631401590341654</v>
       </c>
       <c r="Q6">
-        <v>0.1997759129934445</v>
+        <v>0.1884313558023334</v>
       </c>
       <c r="R6">
-        <v>1.797983216941</v>
+        <v>1.695882202221</v>
       </c>
       <c r="S6">
-        <v>0.0001895213102503533</v>
+        <v>9.414446665486584E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001895213102503533</v>
+        <v>9.414446665486584E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>6.020107</v>
       </c>
       <c r="I7">
-        <v>0.03069053130839924</v>
+        <v>0.03577730856453667</v>
       </c>
       <c r="J7">
-        <v>0.03069053130839923</v>
+        <v>0.03577730856453666</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.06197766666666667</v>
+        <v>0.00569</v>
       </c>
       <c r="N7">
-        <v>0.185933</v>
+        <v>0.01707</v>
       </c>
       <c r="O7">
-        <v>0.003844401134548354</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="P7">
-        <v>0.003844401134548355</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="Q7">
-        <v>0.1243707283145556</v>
+        <v>0.01141813627666667</v>
       </c>
       <c r="R7">
-        <v>1.119336554831</v>
+        <v>0.10276322649</v>
       </c>
       <c r="S7">
-        <v>0.0001179867133819018</v>
+        <v>5.704753040608584E-06</v>
       </c>
       <c r="T7">
-        <v>0.0001179867133819018</v>
+        <v>5.704753040608584E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.506566</v>
+        <v>1.732509666666666</v>
       </c>
       <c r="H8">
-        <v>7.519698</v>
+        <v>5.197528999999999</v>
       </c>
       <c r="I8">
-        <v>0.03833545265868316</v>
+        <v>0.03088875310789786</v>
       </c>
       <c r="J8">
-        <v>0.03833545265868316</v>
+        <v>0.03088875310789786</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.960008</v>
+        <v>35.585194</v>
       </c>
       <c r="N8">
-        <v>47.880024</v>
+        <v>106.755582</v>
       </c>
       <c r="O8">
-        <v>0.9899803616776065</v>
+        <v>0.9972091466993565</v>
       </c>
       <c r="P8">
-        <v>0.9899803616776066</v>
+        <v>0.9972091466993567</v>
       </c>
       <c r="Q8">
-        <v>40.004813412528</v>
+        <v>61.65169259520866</v>
       </c>
       <c r="R8">
-        <v>360.043320712752</v>
+        <v>554.865233356878</v>
       </c>
       <c r="S8">
-        <v>0.03795134528811791</v>
+        <v>0.03080254712933391</v>
       </c>
       <c r="T8">
-        <v>0.03795134528811792</v>
+        <v>0.03080254712933392</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.506566</v>
+        <v>1.732509666666666</v>
       </c>
       <c r="H9">
-        <v>7.519698</v>
+        <v>5.197528999999999</v>
       </c>
       <c r="I9">
-        <v>0.03833545265868316</v>
+        <v>0.03088875310789786</v>
       </c>
       <c r="J9">
-        <v>0.03833545265868316</v>
+        <v>0.03088875310789786</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.09955433333333334</v>
+        <v>0.093901</v>
       </c>
       <c r="N9">
-        <v>0.298663</v>
+        <v>0.281703</v>
       </c>
       <c r="O9">
-        <v>0.006175237187845165</v>
+        <v>0.002631401590341653</v>
       </c>
       <c r="P9">
-        <v>0.006175237187845166</v>
+        <v>0.002631401590341654</v>
       </c>
       <c r="Q9">
-        <v>0.249539507086</v>
+        <v>0.1626843902096666</v>
       </c>
       <c r="R9">
-        <v>2.245855563774</v>
+        <v>1.464159511887</v>
       </c>
       <c r="S9">
-        <v>0.000236730512870778</v>
+        <v>8.128071405179311E-05</v>
       </c>
       <c r="T9">
-        <v>0.0002367305128707781</v>
+        <v>8.128071405179312E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.506566</v>
+        <v>1.732509666666666</v>
       </c>
       <c r="H10">
-        <v>7.519698</v>
+        <v>5.197528999999999</v>
       </c>
       <c r="I10">
-        <v>0.03833545265868316</v>
+        <v>0.03088875310789786</v>
       </c>
       <c r="J10">
-        <v>0.03833545265868316</v>
+        <v>0.03088875310789786</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.06197766666666667</v>
+        <v>0.00569</v>
       </c>
       <c r="N10">
-        <v>0.185933</v>
+        <v>0.01707</v>
       </c>
       <c r="O10">
-        <v>0.003844401134548354</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="P10">
-        <v>0.003844401134548355</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="Q10">
-        <v>0.155351112026</v>
+        <v>0.009857980003333331</v>
       </c>
       <c r="R10">
-        <v>1.398160008234</v>
+        <v>0.08872182002999998</v>
       </c>
       <c r="S10">
-        <v>0.0001473768576944662</v>
+        <v>4.925264512142605E-06</v>
       </c>
       <c r="T10">
-        <v>0.0001473768576944663</v>
+        <v>4.925264512142606E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.82593033333333</v>
+        <v>49.33364366666667</v>
       </c>
       <c r="H11">
-        <v>179.477791</v>
+        <v>148.000931</v>
       </c>
       <c r="I11">
-        <v>0.914978548362651</v>
+        <v>0.879564927371839</v>
       </c>
       <c r="J11">
-        <v>0.914978548362651</v>
+        <v>0.879564927371839</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.960008</v>
+        <v>35.585194</v>
       </c>
       <c r="N11">
-        <v>47.880024</v>
+        <v>106.755582</v>
       </c>
       <c r="O11">
-        <v>0.9899803616776065</v>
+        <v>0.9972091466993565</v>
       </c>
       <c r="P11">
-        <v>0.9899803616776066</v>
+        <v>0.9972091466993567</v>
       </c>
       <c r="Q11">
-        <v>954.8223267274427</v>
+        <v>1755.547280605205</v>
       </c>
       <c r="R11">
-        <v>8593.400940546984</v>
+        <v>15799.92552544684</v>
       </c>
       <c r="S11">
-        <v>0.9058107942353086</v>
+        <v>0.877110190691153</v>
       </c>
       <c r="T11">
-        <v>0.9058107942353087</v>
+        <v>0.8771101906911531</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.82593033333333</v>
+        <v>49.33364366666667</v>
       </c>
       <c r="H12">
-        <v>179.477791</v>
+        <v>148.000931</v>
       </c>
       <c r="I12">
-        <v>0.914978548362651</v>
+        <v>0.879564927371839</v>
       </c>
       <c r="J12">
-        <v>0.914978548362651</v>
+        <v>0.879564927371839</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.09955433333333334</v>
+        <v>0.093901</v>
       </c>
       <c r="N12">
-        <v>0.298663</v>
+        <v>0.281703</v>
       </c>
       <c r="O12">
-        <v>0.006175237187845165</v>
+        <v>0.002631401590341653</v>
       </c>
       <c r="P12">
-        <v>0.006175237187845166</v>
+        <v>0.002631401590341654</v>
       </c>
       <c r="Q12">
-        <v>5.955930610381444</v>
+        <v>4.632478473943666</v>
       </c>
       <c r="R12">
-        <v>53.603375493433</v>
+        <v>41.692306265493</v>
       </c>
       <c r="S12">
-        <v>0.005650209557929628</v>
+        <v>0.002314488548694998</v>
       </c>
       <c r="T12">
-        <v>0.005650209557929629</v>
+        <v>0.002314488548694998</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>59.82593033333333</v>
+        <v>49.33364366666667</v>
       </c>
       <c r="H13">
-        <v>179.477791</v>
+        <v>148.000931</v>
       </c>
       <c r="I13">
-        <v>0.914978548362651</v>
+        <v>0.879564927371839</v>
       </c>
       <c r="J13">
-        <v>0.914978548362651</v>
+        <v>0.879564927371839</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.06197766666666667</v>
+        <v>0.00569</v>
       </c>
       <c r="N13">
-        <v>0.185933</v>
+        <v>0.01707</v>
       </c>
       <c r="O13">
-        <v>0.003844401134548354</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="P13">
-        <v>0.003844401134548355</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="Q13">
-        <v>3.707871568222556</v>
+        <v>0.2807084324633333</v>
       </c>
       <c r="R13">
-        <v>33.370844114003</v>
+        <v>2.52637589217</v>
       </c>
       <c r="S13">
-        <v>0.003517544569412782</v>
+        <v>0.0001402481319908684</v>
       </c>
       <c r="T13">
-        <v>0.003517544569412782</v>
+        <v>0.0001402481319908685</v>
       </c>
     </row>
   </sheetData>
